--- a/config_3.9/box_exchange_server.xlsx
+++ b/config_3.9/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="814">
   <si>
     <t>id|</t>
   </si>
@@ -4877,23 +4877,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0元话费</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>纯棉毛巾</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5340,6 +5323,10 @@
   </si>
   <si>
     <t>3,3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,5000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -8335,7 +8322,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C78" s="18">
         <v>1613433600</v>
@@ -8363,7 +8350,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C79" s="18">
         <v>1613433600</v>
@@ -8391,7 +8378,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C80" s="51">
         <v>1614643200</v>
@@ -8419,7 +8406,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C81" s="51">
         <v>1614643200</v>
@@ -8447,7 +8434,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C82" s="51">
         <v>1614643200</v>
@@ -8475,7 +8462,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C83" s="13">
         <v>1615248000</v>
@@ -8498,7 +8485,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C84" s="13">
         <v>1615248000</v>
@@ -8521,7 +8508,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C85" s="13">
         <v>1615248000</v>
@@ -8544,7 +8531,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C86" s="13">
         <v>1615248000</v>
@@ -9602,7 +9589,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D73" s="51">
         <v>1</v>
@@ -9616,7 +9603,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D74" s="51">
         <v>1</v>
@@ -9630,7 +9617,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D75" s="51">
         <v>1</v>
@@ -9644,7 +9631,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -9658,7 +9645,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
@@ -9672,7 +9659,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -9686,7 +9673,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D79" s="6">
         <v>1</v>
@@ -17169,8 +17156,8 @@
   <dimension ref="A1:F533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A525" sqref="A525:E532"/>
+      <pane ySplit="1" topLeftCell="A473" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H491" sqref="H491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -24303,7 +24290,7 @@
       </c>
       <c r="C451" s="13"/>
       <c r="D451" s="15" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E451" s="21" t="s">
         <v>721</v>
@@ -24426,7 +24413,7 @@
         <v>169</v>
       </c>
       <c r="E459" s="21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="460" spans="1:5" s="17" customFormat="1">
@@ -24441,7 +24428,7 @@
         <v>30</v>
       </c>
       <c r="E460" s="21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="461" spans="1:5" s="17" customFormat="1" ht="16.5">
@@ -24456,7 +24443,7 @@
         <v>748</v>
       </c>
       <c r="E461" s="21" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="462" spans="1:5" s="17" customFormat="1" ht="16.5">
@@ -24471,7 +24458,7 @@
         <v>748</v>
       </c>
       <c r="E462" s="21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="16.5">
@@ -24486,7 +24473,7 @@
         <v>748</v>
       </c>
       <c r="E463" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -24516,7 +24503,7 @@
         <v>30</v>
       </c>
       <c r="E465" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -24527,7 +24514,7 @@
         <v>11941</v>
       </c>
       <c r="C466" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D466" s="13"/>
       <c r="E466" s="32"/>
@@ -24544,7 +24531,7 @@
         <v>169</v>
       </c>
       <c r="E467" s="21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -24559,7 +24546,7 @@
         <v>30</v>
       </c>
       <c r="E468" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="469" spans="1:5" ht="16.5">
@@ -24574,7 +24561,7 @@
         <v>748</v>
       </c>
       <c r="E469" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="16.5">
@@ -24589,7 +24576,7 @@
         <v>748</v>
       </c>
       <c r="E470" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="16.5">
@@ -24604,7 +24591,7 @@
         <v>748</v>
       </c>
       <c r="E471" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -24634,7 +24621,7 @@
         <v>30</v>
       </c>
       <c r="E473" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -24645,7 +24632,7 @@
         <v>11949</v>
       </c>
       <c r="C474" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D474" s="13"/>
       <c r="E474" s="32"/>
@@ -24659,10 +24646,10 @@
       </c>
       <c r="C475" s="13"/>
       <c r="D475" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="E475" s="21" t="s">
         <v>785</v>
-      </c>
-      <c r="E475" s="21" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -24677,7 +24664,7 @@
         <v>30</v>
       </c>
       <c r="E476" s="21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="16.5">
@@ -24692,7 +24679,7 @@
         <v>748</v>
       </c>
       <c r="E477" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="16.5">
@@ -24707,7 +24694,7 @@
         <v>748</v>
       </c>
       <c r="E478" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="16.5">
@@ -24722,7 +24709,7 @@
         <v>748</v>
       </c>
       <c r="E479" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -24737,7 +24724,7 @@
         <v>30</v>
       </c>
       <c r="E480" s="21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -24752,7 +24739,7 @@
         <v>30</v>
       </c>
       <c r="E481" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -24763,7 +24750,7 @@
         <v>11957</v>
       </c>
       <c r="C482" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D482" s="13"/>
       <c r="E482" s="32"/>
@@ -24814,11 +24801,13 @@
       <c r="B486" s="13">
         <v>11961</v>
       </c>
-      <c r="C486" s="15" t="s">
-        <v>753</v>
-      </c>
-      <c r="D486" s="13"/>
-      <c r="E486" s="32"/>
+      <c r="C486" s="15"/>
+      <c r="D486" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="E486" s="32" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="17">
@@ -24828,7 +24817,7 @@
         <v>11962</v>
       </c>
       <c r="C487" s="15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D487" s="13"/>
       <c r="E487" s="32"/>
@@ -24845,7 +24834,7 @@
         <v>42</v>
       </c>
       <c r="E488" s="21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -24860,7 +24849,7 @@
         <v>161</v>
       </c>
       <c r="E489" s="21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -24872,10 +24861,10 @@
       </c>
       <c r="C490" s="13"/>
       <c r="D490" s="15" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E490" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -24890,7 +24879,7 @@
         <v>42</v>
       </c>
       <c r="E491" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -24902,10 +24891,10 @@
       </c>
       <c r="C492" s="13"/>
       <c r="D492" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="E492" s="21" t="s">
         <v>759</v>
-      </c>
-      <c r="E492" s="21" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -24917,10 +24906,10 @@
       </c>
       <c r="C493" s="13"/>
       <c r="D493" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="E493" s="21" t="s">
         <v>761</v>
-      </c>
-      <c r="E493" s="21" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -24935,7 +24924,7 @@
         <v>30</v>
       </c>
       <c r="E494" s="21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -24950,7 +24939,7 @@
         <v>42</v>
       </c>
       <c r="E495" s="21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -24965,7 +24954,7 @@
         <v>161</v>
       </c>
       <c r="E496" s="21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -24977,10 +24966,10 @@
       </c>
       <c r="C497" s="13"/>
       <c r="D497" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E497" s="21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -25396,10 +25385,10 @@
         <v>12000</v>
       </c>
       <c r="D525" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="E525" s="41" t="s">
         <v>799</v>
-      </c>
-      <c r="E525" s="41" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -25410,10 +25399,10 @@
         <v>12000</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E526" s="41" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -25424,10 +25413,10 @@
         <v>12000</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E527" s="41" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -25438,10 +25427,10 @@
         <v>12001</v>
       </c>
       <c r="D528" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="E528" s="41" t="s">
         <v>805</v>
-      </c>
-      <c r="E528" s="41" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -25452,10 +25441,10 @@
         <v>12001</v>
       </c>
       <c r="D529" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="E529" s="41" t="s">
         <v>807</v>
-      </c>
-      <c r="E529" s="41" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -25466,10 +25455,10 @@
         <v>12003</v>
       </c>
       <c r="D530" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="E530" s="41" t="s">
         <v>799</v>
-      </c>
-      <c r="E530" s="41" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -25480,10 +25469,10 @@
         <v>12003</v>
       </c>
       <c r="D531" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="E531" s="41" t="s">
         <v>809</v>
-      </c>
-      <c r="E531" s="41" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -25494,10 +25483,10 @@
         <v>12004</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E532" s="41" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -25508,10 +25497,10 @@
         <v>12004</v>
       </c>
       <c r="D533" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="E533" s="41" t="s">
         <v>812</v>
-      </c>
-      <c r="E533" s="41" t="s">
-        <v>813</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/box_exchange_server.xlsx
+++ b/config_3.9/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="817">
   <si>
     <t>id|</t>
   </si>
@@ -5327,6 +5327,18 @@
   </si>
   <si>
     <t>5000,5000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利-优惠券礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_xrxsfl_5_50box</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_5_coupon</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -5992,11 +6004,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
+      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8549,6 +8561,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="18">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1615248000</v>
+      </c>
+      <c r="D87" s="13">
+        <v>2552233600</v>
+      </c>
+      <c r="E87" s="4">
+        <v>79</v>
+      </c>
+      <c r="K87" s="6">
+        <v>85</v>
+      </c>
+      <c r="L87" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8560,11 +8595,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76:D79"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9676,6 +9711,20 @@
         <v>797</v>
       </c>
       <c r="D79" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="17">
+        <v>79</v>
+      </c>
+      <c r="B80" s="17">
+        <v>79</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>815</v>
+      </c>
+      <c r="D80" s="6">
         <v>1</v>
       </c>
     </row>
@@ -9731,13 +9780,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E528"/>
+  <dimension ref="A1:E529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B521" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B509" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D525" sqref="D525"/>
+      <selection pane="bottomRight" activeCell="C529" sqref="C529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -17144,6 +17193,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="1">
+        <v>528</v>
+      </c>
+      <c r="B529" s="1">
+        <v>85</v>
+      </c>
+      <c r="C529" s="1">
+        <v>12004</v>
+      </c>
+      <c r="D529" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17153,11 +17216,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F533"/>
+  <dimension ref="A1:F534"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A473" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H491" sqref="H491"/>
+      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E534" sqref="A534:E534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -25452,7 +25515,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="13">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="D530" s="3" t="s">
         <v>798</v>
@@ -25466,7 +25529,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="13">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="D531" s="3" t="s">
         <v>808</v>
@@ -25480,7 +25543,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="13">
-        <v>12004</v>
+        <v>12003</v>
       </c>
       <c r="D532" s="3" t="s">
         <v>798</v>
@@ -25494,13 +25557,27 @@
         <v>532</v>
       </c>
       <c r="B533" s="13">
-        <v>12004</v>
+        <v>12003</v>
       </c>
       <c r="D533" s="3" t="s">
         <v>811</v>
       </c>
       <c r="E533" s="41" t="s">
         <v>812</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" s="53">
+        <v>533</v>
+      </c>
+      <c r="B534" s="13">
+        <v>12004</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="E534" s="41" t="s">
+        <v>805</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/box_exchange_server.xlsx
+++ b/config_3.9/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5189,18 +5189,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>prop_xrxsfl_15box</t>
-  </si>
-  <si>
-    <t>prop_xrxsfl_50box</t>
-  </si>
-  <si>
-    <t>prop_xrxsfl_10box</t>
-  </si>
-  <si>
-    <t>prop_xrxsfl_30box</t>
-  </si>
-  <si>
     <t>prop_web_chip_huafei</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5340,6 +5328,18 @@
   <si>
     <t>obj_5_coupon</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_xrxsfl_15box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_50box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_10box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_30box</t>
   </si>
 </sst>
 </file>
@@ -6006,9 +6006,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8566,7 +8566,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C87" s="13">
         <v>1615248000</v>
@@ -8597,9 +8597,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9666,7 +9666,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -9680,7 +9680,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
@@ -9694,7 +9694,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>796</v>
+        <v>815</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -9708,7 +9708,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>797</v>
+        <v>816</v>
       </c>
       <c r="D79" s="6">
         <v>1</v>
@@ -9722,7 +9722,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
@@ -17218,7 +17218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F534"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E534" sqref="A534:E534"/>
     </sheetView>
@@ -24869,7 +24869,7 @@
         <v>760</v>
       </c>
       <c r="E486" s="32" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -25448,10 +25448,10 @@
         <v>12000</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E525" s="41" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -25462,10 +25462,10 @@
         <v>12000</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E526" s="41" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -25476,10 +25476,10 @@
         <v>12000</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E527" s="41" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -25490,10 +25490,10 @@
         <v>12001</v>
       </c>
       <c r="D528" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E528" s="41" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -25504,10 +25504,10 @@
         <v>12001</v>
       </c>
       <c r="D529" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E529" s="41" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -25518,10 +25518,10 @@
         <v>12002</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E530" s="41" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -25532,10 +25532,10 @@
         <v>12002</v>
       </c>
       <c r="D531" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E531" s="41" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -25546,10 +25546,10 @@
         <v>12003</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E532" s="41" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -25560,10 +25560,10 @@
         <v>12003</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E533" s="41" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -25574,10 +25574,10 @@
         <v>12004</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E534" s="41" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
